--- a/public/templates/template_rapbdes.xlsx
+++ b/public/templates/template_rapbdes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\sipede\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF5704-6BEA-4E43-82A2-3D402387C60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676093C-010B-486C-8E99-93C846A5A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF846DD2-6384-4907-B77D-6E2CF721CE1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{EF846DD2-6384-4907-B77D-6E2CF721CE1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,15 +555,6 @@
     <t>[1c_1]</t>
   </si>
   <si>
-    <t>[b_uraian_1]</t>
-  </si>
-  <si>
-    <t>[b_anggaran_1]</t>
-  </si>
-  <si>
-    <t>[b_sumber_1]</t>
-  </si>
-  <si>
     <t>[1a_2]</t>
   </si>
   <si>
@@ -573,15 +564,6 @@
     <t>[1c_2]</t>
   </si>
   <si>
-    <t>[b_uraian_2]</t>
-  </si>
-  <si>
-    <t>[b_anggaran_2]</t>
-  </si>
-  <si>
-    <t>[b_sumber_2]</t>
-  </si>
-  <si>
     <t>[1a_3]</t>
   </si>
   <si>
@@ -591,15 +573,6 @@
     <t>[1c_3]</t>
   </si>
   <si>
-    <t>[b_uraian_3]</t>
-  </si>
-  <si>
-    <t>[b_anggaran_3]</t>
-  </si>
-  <si>
-    <t>[b_sumber_3]</t>
-  </si>
-  <si>
     <t>[1a_4]</t>
   </si>
   <si>
@@ -609,15 +582,6 @@
     <t>[1c_4]</t>
   </si>
   <si>
-    <t>[b_uraian_4]</t>
-  </si>
-  <si>
-    <t>[b_anggaran_4]</t>
-  </si>
-  <si>
-    <t>[b_sumber_4]</t>
-  </si>
-  <si>
     <t>[1a_5]</t>
   </si>
   <si>
@@ -627,19 +591,55 @@
     <t>[1c_5]</t>
   </si>
   <si>
-    <t>[b_uraian_5]</t>
-  </si>
-  <si>
-    <t>[b_anggaran_5]</t>
-  </si>
-  <si>
-    <t>[b_sumber_5]</t>
-  </si>
-  <si>
     <t>{pendapatan}</t>
   </si>
   <si>
     <t>{belanja}</t>
+  </si>
+  <si>
+    <t>[b_a_1]</t>
+  </si>
+  <si>
+    <t>[b_a_2]</t>
+  </si>
+  <si>
+    <t>[b_a_3]</t>
+  </si>
+  <si>
+    <t>[b_a_4]</t>
+  </si>
+  <si>
+    <t>[b_a_5]</t>
+  </si>
+  <si>
+    <t>[b_b_1]</t>
+  </si>
+  <si>
+    <t>[b_b_2]</t>
+  </si>
+  <si>
+    <t>[b_b_3]</t>
+  </si>
+  <si>
+    <t>[b_b_4]</t>
+  </si>
+  <si>
+    <t>[b_b_5]</t>
+  </si>
+  <si>
+    <t>[b_c_1]</t>
+  </si>
+  <si>
+    <t>[b_c_2]</t>
+  </si>
+  <si>
+    <t>[b_c_3]</t>
+  </si>
+  <si>
+    <t>[b_c_4]</t>
+  </si>
+  <si>
+    <t>[b_c_5]</t>
   </si>
 </sst>
 </file>
@@ -3105,73 +3105,76 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3180,6 +3183,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="85" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3226,87 +3307,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="85" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3680,7 +3680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019D5CB6-8223-43D7-BF59-AC8536CCA00D}">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P55" sqref="P55:Q55"/>
     </sheetView>
   </sheetViews>
@@ -3700,141 +3700,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="221"/>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
+      <c r="A1" s="241"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="221"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
     </row>
     <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="221"/>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="222"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
+      <c r="A4" s="242"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
     </row>
     <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="223"/>
-      <c r="B5" s="223"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="223"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="243"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
     </row>
     <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="221"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="241"/>
     </row>
     <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -3856,46 +3856,46 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="220"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="240"/>
+      <c r="O9" s="240"/>
+      <c r="P9" s="240"/>
+      <c r="Q9" s="240"/>
     </row>
     <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="220"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="220"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="240"/>
+      <c r="N10" s="240"/>
+      <c r="O10" s="240"/>
+      <c r="P10" s="240"/>
+      <c r="Q10" s="240"/>
     </row>
     <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -3917,147 +3917,147 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="220"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="240"/>
+      <c r="N12" s="240"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
     </row>
     <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="240"/>
+      <c r="O13" s="240"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="240"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="220"/>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="240"/>
+      <c r="O14" s="240"/>
+      <c r="P14" s="240"/>
+      <c r="Q14" s="240"/>
     </row>
     <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="220"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="220"/>
+      <c r="A15" s="240"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="240"/>
+      <c r="N15" s="240"/>
+      <c r="O15" s="240"/>
+      <c r="P15" s="240"/>
+      <c r="Q15" s="240"/>
     </row>
     <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="220"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="220"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="240"/>
+      <c r="N16" s="240"/>
+      <c r="O16" s="240"/>
+      <c r="P16" s="240"/>
+      <c r="Q16" s="240"/>
     </row>
     <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="220"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="220"/>
+      <c r="A17" s="240"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="240"/>
+      <c r="N17" s="240"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="240"/>
     </row>
     <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="220"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="240"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="240"/>
+      <c r="M18" s="240"/>
+      <c r="N18" s="240"/>
+      <c r="O18" s="240"/>
+      <c r="P18" s="240"/>
+      <c r="Q18" s="240"/>
     </row>
     <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
@@ -4110,19 +4110,19 @@
       <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="224" t="s">
+      <c r="G21" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="224"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="238"/>
+      <c r="P21" s="238"/>
+      <c r="Q21" s="238"/>
     </row>
     <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
@@ -4133,19 +4133,19 @@
       <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="224" t="s">
+      <c r="G22" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="224"/>
-      <c r="I22" s="224"/>
-      <c r="J22" s="224"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="224"/>
+      <c r="H22" s="238"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="238"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="238"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
+      <c r="P22" s="238"/>
+      <c r="Q22" s="238"/>
     </row>
     <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
@@ -4183,19 +4183,19 @@
       <c r="F24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="224" t="s">
+      <c r="G24" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="224"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="238"/>
     </row>
     <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
@@ -4206,19 +4206,19 @@
       <c r="F25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="224" t="s">
+      <c r="G25" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="238"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
@@ -4229,19 +4229,19 @@
       <c r="F26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="224" t="s">
+      <c r="G26" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
+      <c r="H26" s="238"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="238"/>
+      <c r="Q26" s="238"/>
     </row>
     <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
@@ -4252,19 +4252,19 @@
       <c r="F27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="224" t="s">
+      <c r="G27" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
+      <c r="H27" s="238"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="238"/>
+      <c r="Q27" s="238"/>
     </row>
     <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -4275,19 +4275,19 @@
       <c r="F28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="224" t="s">
+      <c r="G28" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="224"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="224"/>
-      <c r="Q28" s="224"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="238"/>
+      <c r="Q28" s="238"/>
     </row>
     <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
@@ -4298,19 +4298,19 @@
       <c r="F29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="224" t="s">
+      <c r="G29" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
+      <c r="H29" s="238"/>
+      <c r="I29" s="238"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="238"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="238"/>
+      <c r="Q29" s="238"/>
     </row>
     <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
@@ -4321,19 +4321,19 @@
       <c r="F30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="224" t="s">
+      <c r="G30" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="224"/>
-      <c r="Q30" s="224"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="238"/>
+      <c r="J30" s="238"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="238"/>
+      <c r="M30" s="238"/>
+      <c r="N30" s="238"/>
+      <c r="O30" s="238"/>
+      <c r="P30" s="238"/>
+      <c r="Q30" s="238"/>
     </row>
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
@@ -4344,19 +4344,19 @@
       <c r="F31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="224" t="s">
+      <c r="G31" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="224"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="238"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="238"/>
+      <c r="O31" s="238"/>
+      <c r="P31" s="238"/>
+      <c r="Q31" s="238"/>
     </row>
     <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
@@ -4367,19 +4367,19 @@
       <c r="F32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="224" t="s">
+      <c r="G32" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="224"/>
-      <c r="I32" s="224"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="224"/>
-      <c r="Q32" s="224"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="238"/>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="238"/>
     </row>
     <row r="33" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
@@ -4390,19 +4390,19 @@
       <c r="F33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="224" t="s">
+      <c r="G33" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="224"/>
-      <c r="Q33" s="224"/>
+      <c r="H33" s="238"/>
+      <c r="I33" s="238"/>
+      <c r="J33" s="238"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
+      <c r="N33" s="238"/>
+      <c r="O33" s="238"/>
+      <c r="P33" s="238"/>
+      <c r="Q33" s="238"/>
     </row>
     <row r="34" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -4413,19 +4413,19 @@
       <c r="F34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="224" t="s">
+      <c r="G34" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="224"/>
-      <c r="K34" s="224"/>
-      <c r="L34" s="224"/>
-      <c r="M34" s="224"/>
-      <c r="N34" s="224"/>
-      <c r="O34" s="224"/>
-      <c r="P34" s="224"/>
-      <c r="Q34" s="224"/>
+      <c r="H34" s="238"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="238"/>
+      <c r="K34" s="238"/>
+      <c r="L34" s="238"/>
+      <c r="M34" s="238"/>
+      <c r="N34" s="238"/>
+      <c r="O34" s="238"/>
+      <c r="P34" s="238"/>
+      <c r="Q34" s="238"/>
     </row>
     <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
@@ -4436,19 +4436,19 @@
       <c r="F35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="224" t="s">
+      <c r="G35" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="224"/>
-      <c r="I35" s="224"/>
-      <c r="J35" s="224"/>
-      <c r="K35" s="224"/>
-      <c r="L35" s="224"/>
-      <c r="M35" s="224"/>
-      <c r="N35" s="224"/>
-      <c r="O35" s="224"/>
-      <c r="P35" s="224"/>
-      <c r="Q35" s="224"/>
+      <c r="H35" s="238"/>
+      <c r="I35" s="238"/>
+      <c r="J35" s="238"/>
+      <c r="K35" s="238"/>
+      <c r="L35" s="238"/>
+      <c r="M35" s="238"/>
+      <c r="N35" s="238"/>
+      <c r="O35" s="238"/>
+      <c r="P35" s="238"/>
+      <c r="Q35" s="238"/>
     </row>
     <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
@@ -4459,19 +4459,19 @@
       <c r="F36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="224" t="s">
+      <c r="G36" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="224"/>
-      <c r="I36" s="224"/>
-      <c r="J36" s="224"/>
-      <c r="K36" s="224"/>
-      <c r="L36" s="224"/>
-      <c r="M36" s="224"/>
-      <c r="N36" s="224"/>
-      <c r="O36" s="224"/>
-      <c r="P36" s="224"/>
-      <c r="Q36" s="224"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="238"/>
+      <c r="M36" s="238"/>
+      <c r="N36" s="238"/>
+      <c r="O36" s="238"/>
+      <c r="P36" s="238"/>
+      <c r="Q36" s="238"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
@@ -4482,19 +4482,19 @@
       <c r="F37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="224" t="s">
+      <c r="G37" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="224"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="224"/>
-      <c r="M37" s="224"/>
-      <c r="N37" s="224"/>
-      <c r="O37" s="224"/>
-      <c r="P37" s="224"/>
-      <c r="Q37" s="224"/>
+      <c r="H37" s="238"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="238"/>
+      <c r="K37" s="238"/>
+      <c r="L37" s="238"/>
+      <c r="M37" s="238"/>
+      <c r="N37" s="238"/>
+      <c r="O37" s="238"/>
+      <c r="P37" s="238"/>
+      <c r="Q37" s="238"/>
     </row>
     <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -4505,19 +4505,19 @@
       <c r="F38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="224" t="s">
+      <c r="G38" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="224"/>
-      <c r="I38" s="224"/>
-      <c r="J38" s="224"/>
-      <c r="K38" s="224"/>
-      <c r="L38" s="224"/>
-      <c r="M38" s="224"/>
-      <c r="N38" s="224"/>
-      <c r="O38" s="224"/>
-      <c r="P38" s="224"/>
-      <c r="Q38" s="224"/>
+      <c r="H38" s="238"/>
+      <c r="I38" s="238"/>
+      <c r="J38" s="238"/>
+      <c r="K38" s="238"/>
+      <c r="L38" s="238"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="238"/>
+      <c r="O38" s="238"/>
+      <c r="P38" s="238"/>
+      <c r="Q38" s="238"/>
     </row>
     <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
@@ -4528,19 +4528,19 @@
       <c r="F39" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="224" t="s">
+      <c r="G39" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="224"/>
-      <c r="I39" s="224"/>
-      <c r="J39" s="224"/>
-      <c r="K39" s="224"/>
-      <c r="L39" s="224"/>
-      <c r="M39" s="224"/>
-      <c r="N39" s="224"/>
-      <c r="O39" s="224"/>
-      <c r="P39" s="224"/>
-      <c r="Q39" s="224"/>
+      <c r="H39" s="238"/>
+      <c r="I39" s="238"/>
+      <c r="J39" s="238"/>
+      <c r="K39" s="238"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="238"/>
+      <c r="N39" s="238"/>
+      <c r="O39" s="238"/>
+      <c r="P39" s="238"/>
+      <c r="Q39" s="238"/>
     </row>
     <row r="40" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
@@ -4612,88 +4612,88 @@
       <c r="Q42" s="225"/>
     </row>
     <row r="43" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="227" t="s">
+      <c r="A43" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="227"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="227"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="227"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="227"/>
-      <c r="K43" s="227"/>
-      <c r="L43" s="227"/>
-      <c r="M43" s="227"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="227"/>
-      <c r="P43" s="227"/>
-      <c r="Q43" s="227"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="236"/>
+      <c r="G43" s="236"/>
+      <c r="H43" s="236"/>
+      <c r="I43" s="236"/>
+      <c r="J43" s="236"/>
+      <c r="K43" s="236"/>
+      <c r="L43" s="236"/>
+      <c r="M43" s="236"/>
+      <c r="N43" s="236"/>
+      <c r="O43" s="236"/>
+      <c r="P43" s="236"/>
+      <c r="Q43" s="236"/>
     </row>
     <row r="44" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="227" t="s">
+      <c r="A44" s="236" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="227"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="227"/>
-      <c r="E44" s="227"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="227"/>
-      <c r="H44" s="227"/>
-      <c r="I44" s="227"/>
-      <c r="J44" s="227"/>
-      <c r="K44" s="227"/>
-      <c r="L44" s="227"/>
-      <c r="M44" s="227"/>
-      <c r="N44" s="227"/>
-      <c r="O44" s="227"/>
-      <c r="P44" s="227"/>
-      <c r="Q44" s="227"/>
+      <c r="B44" s="236"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="236"/>
+      <c r="L44" s="236"/>
+      <c r="M44" s="236"/>
+      <c r="N44" s="236"/>
+      <c r="O44" s="236"/>
+      <c r="P44" s="236"/>
+      <c r="Q44" s="236"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="227" t="s">
+      <c r="A45" s="236" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-      <c r="L45" s="227"/>
-      <c r="M45" s="227"/>
-      <c r="N45" s="227"/>
-      <c r="O45" s="227"/>
-      <c r="P45" s="227"/>
-      <c r="Q45" s="227"/>
+      <c r="B45" s="236"/>
+      <c r="C45" s="236"/>
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="236"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="236"/>
+      <c r="I45" s="236"/>
+      <c r="J45" s="236"/>
+      <c r="K45" s="236"/>
+      <c r="L45" s="236"/>
+      <c r="M45" s="236"/>
+      <c r="N45" s="236"/>
+      <c r="O45" s="236"/>
+      <c r="P45" s="236"/>
+      <c r="Q45" s="236"/>
     </row>
     <row r="46" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="227" t="s">
+      <c r="A46" s="236" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="227"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="227"/>
-      <c r="K46" s="227"/>
-      <c r="L46" s="227"/>
-      <c r="M46" s="227"/>
-      <c r="N46" s="227"/>
-      <c r="O46" s="227"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="227"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="236"/>
+      <c r="G46" s="236"/>
+      <c r="H46" s="236"/>
+      <c r="I46" s="236"/>
+      <c r="J46" s="236"/>
+      <c r="K46" s="236"/>
+      <c r="L46" s="236"/>
+      <c r="M46" s="236"/>
+      <c r="N46" s="236"/>
+      <c r="O46" s="236"/>
+      <c r="P46" s="236"/>
+      <c r="Q46" s="236"/>
     </row>
     <row r="47" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
@@ -4715,25 +4715,25 @@
       <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="228" t="s">
+      <c r="A48" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="228"/>
-      <c r="C48" s="228"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="228"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="228"/>
-      <c r="L48" s="228"/>
-      <c r="M48" s="228"/>
-      <c r="N48" s="228"/>
-      <c r="O48" s="228"/>
-      <c r="P48" s="228"/>
-      <c r="Q48" s="228"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="237"/>
+      <c r="J48" s="237"/>
+      <c r="K48" s="237"/>
+      <c r="L48" s="237"/>
+      <c r="M48" s="237"/>
+      <c r="N48" s="237"/>
+      <c r="O48" s="237"/>
+      <c r="P48" s="237"/>
+      <c r="Q48" s="237"/>
     </row>
     <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
@@ -4764,20 +4764,20 @@
       <c r="E50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="224" t="s">
+      <c r="F50" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="224"/>
-      <c r="H50" s="224"/>
-      <c r="I50" s="224"/>
-      <c r="J50" s="224"/>
-      <c r="K50" s="224"/>
-      <c r="L50" s="224"/>
-      <c r="M50" s="224"/>
-      <c r="N50" s="224"/>
-      <c r="O50" s="224"/>
-      <c r="P50" s="224"/>
-      <c r="Q50" s="224"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="238"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="238"/>
+      <c r="K50" s="238"/>
+      <c r="L50" s="238"/>
+      <c r="M50" s="238"/>
+      <c r="N50" s="238"/>
+      <c r="O50" s="238"/>
+      <c r="P50" s="238"/>
+      <c r="Q50" s="238"/>
     </row>
     <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
@@ -4799,46 +4799,46 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="227" t="s">
+      <c r="A52" s="236" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227"/>
-      <c r="L52" s="227"/>
-      <c r="M52" s="227"/>
-      <c r="N52" s="227"/>
-      <c r="O52" s="227"/>
-      <c r="P52" s="227"/>
-      <c r="Q52" s="227"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
+      <c r="E52" s="236"/>
+      <c r="F52" s="236"/>
+      <c r="G52" s="236"/>
+      <c r="H52" s="236"/>
+      <c r="I52" s="236"/>
+      <c r="J52" s="236"/>
+      <c r="K52" s="236"/>
+      <c r="L52" s="236"/>
+      <c r="M52" s="236"/>
+      <c r="N52" s="236"/>
+      <c r="O52" s="236"/>
+      <c r="P52" s="236"/>
+      <c r="Q52" s="236"/>
     </row>
     <row r="53" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="229" t="s">
+      <c r="A53" s="239" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="229"/>
-      <c r="C53" s="229"/>
-      <c r="D53" s="229"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="229"/>
-      <c r="G53" s="229"/>
-      <c r="H53" s="229"/>
-      <c r="I53" s="229"/>
-      <c r="J53" s="229"/>
-      <c r="K53" s="229"/>
-      <c r="L53" s="229"/>
-      <c r="M53" s="229"/>
-      <c r="N53" s="229"/>
-      <c r="O53" s="229"/>
-      <c r="P53" s="229"/>
-      <c r="Q53" s="229"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="239"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="239"/>
+      <c r="F53" s="239"/>
+      <c r="G53" s="239"/>
+      <c r="H53" s="239"/>
+      <c r="I53" s="239"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="239"/>
+      <c r="L53" s="239"/>
+      <c r="M53" s="239"/>
+      <c r="N53" s="239"/>
+      <c r="O53" s="239"/>
+      <c r="P53" s="239"/>
+      <c r="Q53" s="239"/>
     </row>
     <row r="54" spans="1:17" ht="16" x14ac:dyDescent="0.4">
       <c r="A54" s="16" t="s">
@@ -4860,10 +4860,10 @@
       <c r="M54" s="18"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
-      <c r="P54" s="230" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q54" s="230"/>
+      <c r="P54" s="231" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q54" s="231"/>
     </row>
     <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.4">
       <c r="A55" s="16" t="s">
@@ -4885,10 +4885,10 @@
       <c r="M55" s="18"/>
       <c r="N55" s="20"/>
       <c r="O55" s="20"/>
-      <c r="P55" s="226" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q55" s="226"/>
+      <c r="P55" s="235" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="235"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
@@ -4927,11 +4927,11 @@
       <c r="M57" s="18"/>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
-      <c r="P57" s="230" t="e">
+      <c r="P57" s="231" t="e">
         <f>P54-P55</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q57" s="230"/>
+      <c r="Q57" s="231"/>
     </row>
     <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
@@ -4978,17 +4978,17 @@
       <c r="B60" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="234" t="s">
+      <c r="C60" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="234"/>
-      <c r="E60" s="234"/>
-      <c r="F60" s="234"/>
-      <c r="G60" s="234"/>
-      <c r="H60" s="234"/>
-      <c r="I60" s="234"/>
-      <c r="J60" s="234"/>
-      <c r="K60" s="234"/>
+      <c r="D60" s="223"/>
+      <c r="E60" s="223"/>
+      <c r="F60" s="223"/>
+      <c r="G60" s="223"/>
+      <c r="H60" s="223"/>
+      <c r="I60" s="223"/>
+      <c r="J60" s="223"/>
+      <c r="K60" s="223"/>
       <c r="L60" s="233">
         <v>0</v>
       </c>
@@ -5003,17 +5003,17 @@
       <c r="B61" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="234" t="s">
+      <c r="C61" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="234"/>
-      <c r="E61" s="234"/>
-      <c r="F61" s="234"/>
-      <c r="G61" s="234"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="234"/>
-      <c r="J61" s="234"/>
-      <c r="K61" s="234"/>
+      <c r="D61" s="223"/>
+      <c r="E61" s="223"/>
+      <c r="F61" s="223"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="223"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
+      <c r="K61" s="223"/>
       <c r="L61" s="233"/>
       <c r="M61" s="233"/>
       <c r="N61" s="233"/>
@@ -5039,11 +5039,11 @@
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
-      <c r="P62" s="230">
+      <c r="P62" s="231">
         <f>SUM(L60-L61)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="230"/>
+      <c r="Q62" s="231"/>
     </row>
     <row r="63" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
@@ -5082,11 +5082,11 @@
       <c r="M64" s="18"/>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
-      <c r="P64" s="235" t="e">
+      <c r="P64" s="234" t="e">
         <f>SUM(P57,P62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q64" s="235"/>
+      <c r="Q64" s="234"/>
     </row>
     <row r="65" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
@@ -5146,46 +5146,46 @@
       <c r="Q67" s="24"/>
     </row>
     <row r="68" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="231" t="s">
+      <c r="A68" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="231"/>
-      <c r="C68" s="231"/>
-      <c r="D68" s="231"/>
-      <c r="E68" s="231"/>
-      <c r="F68" s="231"/>
-      <c r="G68" s="231"/>
-      <c r="H68" s="231"/>
-      <c r="I68" s="231"/>
-      <c r="J68" s="231"/>
-      <c r="K68" s="231"/>
-      <c r="L68" s="231"/>
-      <c r="M68" s="231"/>
-      <c r="N68" s="231"/>
-      <c r="O68" s="231"/>
-      <c r="P68" s="231"/>
-      <c r="Q68" s="231"/>
+      <c r="B68" s="224"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="224"/>
+      <c r="F68" s="224"/>
+      <c r="G68" s="224"/>
+      <c r="H68" s="224"/>
+      <c r="I68" s="224"/>
+      <c r="J68" s="224"/>
+      <c r="K68" s="224"/>
+      <c r="L68" s="224"/>
+      <c r="M68" s="224"/>
+      <c r="N68" s="224"/>
+      <c r="O68" s="224"/>
+      <c r="P68" s="224"/>
+      <c r="Q68" s="224"/>
     </row>
     <row r="69" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="236" t="s">
+      <c r="A69" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="236"/>
-      <c r="C69" s="236"/>
-      <c r="D69" s="236"/>
-      <c r="E69" s="236"/>
-      <c r="F69" s="236"/>
-      <c r="G69" s="236"/>
-      <c r="H69" s="236"/>
-      <c r="I69" s="236"/>
-      <c r="J69" s="236"/>
-      <c r="K69" s="236"/>
-      <c r="L69" s="236"/>
-      <c r="M69" s="236"/>
-      <c r="N69" s="236"/>
-      <c r="O69" s="236"/>
-      <c r="P69" s="236"/>
-      <c r="Q69" s="236"/>
+      <c r="B69" s="229"/>
+      <c r="C69" s="229"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="229"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="229"/>
+      <c r="J69" s="229"/>
+      <c r="K69" s="229"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="229"/>
+      <c r="N69" s="229"/>
+      <c r="O69" s="229"/>
+      <c r="P69" s="229"/>
+      <c r="Q69" s="229"/>
     </row>
     <row r="70" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
@@ -5207,46 +5207,46 @@
       <c r="Q70" s="27"/>
     </row>
     <row r="71" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="231" t="s">
+      <c r="A71" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="231"/>
-      <c r="C71" s="231"/>
-      <c r="D71" s="231"/>
-      <c r="E71" s="231"/>
-      <c r="F71" s="231"/>
-      <c r="G71" s="231"/>
-      <c r="H71" s="231"/>
-      <c r="I71" s="231"/>
-      <c r="J71" s="231"/>
-      <c r="K71" s="231"/>
-      <c r="L71" s="231"/>
-      <c r="M71" s="231"/>
-      <c r="N71" s="231"/>
-      <c r="O71" s="231"/>
-      <c r="P71" s="231"/>
-      <c r="Q71" s="231"/>
+      <c r="B71" s="224"/>
+      <c r="C71" s="224"/>
+      <c r="D71" s="224"/>
+      <c r="E71" s="224"/>
+      <c r="F71" s="224"/>
+      <c r="G71" s="224"/>
+      <c r="H71" s="224"/>
+      <c r="I71" s="224"/>
+      <c r="J71" s="224"/>
+      <c r="K71" s="224"/>
+      <c r="L71" s="224"/>
+      <c r="M71" s="224"/>
+      <c r="N71" s="224"/>
+      <c r="O71" s="224"/>
+      <c r="P71" s="224"/>
+      <c r="Q71" s="224"/>
     </row>
     <row r="72" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="236" t="s">
+      <c r="A72" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="236"/>
-      <c r="C72" s="236"/>
-      <c r="D72" s="236"/>
-      <c r="E72" s="236"/>
-      <c r="F72" s="236"/>
-      <c r="G72" s="236"/>
-      <c r="H72" s="236"/>
-      <c r="I72" s="236"/>
-      <c r="J72" s="236"/>
-      <c r="K72" s="236"/>
-      <c r="L72" s="236"/>
-      <c r="M72" s="236"/>
-      <c r="N72" s="236"/>
-      <c r="O72" s="236"/>
-      <c r="P72" s="236"/>
-      <c r="Q72" s="236"/>
+      <c r="B72" s="229"/>
+      <c r="C72" s="229"/>
+      <c r="D72" s="229"/>
+      <c r="E72" s="229"/>
+      <c r="F72" s="229"/>
+      <c r="G72" s="229"/>
+      <c r="H72" s="229"/>
+      <c r="I72" s="229"/>
+      <c r="J72" s="229"/>
+      <c r="K72" s="229"/>
+      <c r="L72" s="229"/>
+      <c r="M72" s="229"/>
+      <c r="N72" s="229"/>
+      <c r="O72" s="229"/>
+      <c r="P72" s="229"/>
+      <c r="Q72" s="229"/>
     </row>
     <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="28"/>
@@ -5360,46 +5360,46 @@
       <c r="Q77" s="28"/>
     </row>
     <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="231" t="s">
+      <c r="A78" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="231"/>
-      <c r="C78" s="231"/>
-      <c r="D78" s="231"/>
-      <c r="E78" s="231"/>
-      <c r="F78" s="231"/>
-      <c r="G78" s="231"/>
-      <c r="H78" s="231"/>
-      <c r="I78" s="231"/>
-      <c r="J78" s="231"/>
-      <c r="K78" s="231"/>
-      <c r="L78" s="231"/>
-      <c r="M78" s="231"/>
-      <c r="N78" s="231"/>
-      <c r="O78" s="231"/>
-      <c r="P78" s="231"/>
-      <c r="Q78" s="231"/>
+      <c r="B78" s="224"/>
+      <c r="C78" s="224"/>
+      <c r="D78" s="224"/>
+      <c r="E78" s="224"/>
+      <c r="F78" s="224"/>
+      <c r="G78" s="224"/>
+      <c r="H78" s="224"/>
+      <c r="I78" s="224"/>
+      <c r="J78" s="224"/>
+      <c r="K78" s="224"/>
+      <c r="L78" s="224"/>
+      <c r="M78" s="224"/>
+      <c r="N78" s="224"/>
+      <c r="O78" s="224"/>
+      <c r="P78" s="224"/>
+      <c r="Q78" s="224"/>
     </row>
     <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="236" t="s">
+      <c r="A79" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="236"/>
-      <c r="C79" s="236"/>
-      <c r="D79" s="236"/>
-      <c r="E79" s="236"/>
-      <c r="F79" s="236"/>
-      <c r="G79" s="236"/>
-      <c r="H79" s="236"/>
-      <c r="I79" s="236"/>
-      <c r="J79" s="236"/>
-      <c r="K79" s="236"/>
-      <c r="L79" s="236"/>
-      <c r="M79" s="236"/>
-      <c r="N79" s="236"/>
-      <c r="O79" s="236"/>
-      <c r="P79" s="236"/>
-      <c r="Q79" s="236"/>
+      <c r="B79" s="229"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="229"/>
+      <c r="E79" s="229"/>
+      <c r="F79" s="229"/>
+      <c r="G79" s="229"/>
+      <c r="H79" s="229"/>
+      <c r="I79" s="229"/>
+      <c r="J79" s="229"/>
+      <c r="K79" s="229"/>
+      <c r="L79" s="229"/>
+      <c r="M79" s="229"/>
+      <c r="N79" s="229"/>
+      <c r="O79" s="229"/>
+      <c r="P79" s="229"/>
+      <c r="Q79" s="229"/>
     </row>
     <row r="80" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="28"/>
@@ -5421,232 +5421,232 @@
       <c r="Q80" s="28"/>
     </row>
     <row r="81" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="231" t="s">
+      <c r="A81" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="231"/>
-      <c r="C81" s="231"/>
-      <c r="D81" s="231"/>
-      <c r="E81" s="231"/>
-      <c r="F81" s="231"/>
-      <c r="G81" s="231"/>
-      <c r="H81" s="231"/>
-      <c r="I81" s="231"/>
-      <c r="J81" s="231"/>
-      <c r="K81" s="231"/>
-      <c r="L81" s="231"/>
-      <c r="M81" s="231"/>
-      <c r="N81" s="231"/>
-      <c r="O81" s="231"/>
-      <c r="P81" s="231"/>
-      <c r="Q81" s="231"/>
+      <c r="B81" s="224"/>
+      <c r="C81" s="224"/>
+      <c r="D81" s="224"/>
+      <c r="E81" s="224"/>
+      <c r="F81" s="224"/>
+      <c r="G81" s="224"/>
+      <c r="H81" s="224"/>
+      <c r="I81" s="224"/>
+      <c r="J81" s="224"/>
+      <c r="K81" s="224"/>
+      <c r="L81" s="224"/>
+      <c r="M81" s="224"/>
+      <c r="N81" s="224"/>
+      <c r="O81" s="224"/>
+      <c r="P81" s="224"/>
+      <c r="Q81" s="224"/>
     </row>
     <row r="82" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="237" t="s">
+      <c r="B82" s="230" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="237"/>
-      <c r="D82" s="237"/>
-      <c r="E82" s="237"/>
-      <c r="F82" s="237"/>
-      <c r="G82" s="237"/>
-      <c r="H82" s="237"/>
-      <c r="I82" s="237"/>
-      <c r="J82" s="237"/>
-      <c r="K82" s="237"/>
-      <c r="L82" s="237"/>
-      <c r="M82" s="237"/>
-      <c r="N82" s="237"/>
-      <c r="O82" s="237"/>
-      <c r="P82" s="237"/>
-      <c r="Q82" s="237"/>
+      <c r="C82" s="230"/>
+      <c r="D82" s="230"/>
+      <c r="E82" s="230"/>
+      <c r="F82" s="230"/>
+      <c r="G82" s="230"/>
+      <c r="H82" s="230"/>
+      <c r="I82" s="230"/>
+      <c r="J82" s="230"/>
+      <c r="K82" s="230"/>
+      <c r="L82" s="230"/>
+      <c r="M82" s="230"/>
+      <c r="N82" s="230"/>
+      <c r="O82" s="230"/>
+      <c r="P82" s="230"/>
+      <c r="Q82" s="230"/>
     </row>
     <row r="83" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="237" t="s">
+      <c r="B83" s="230" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="237"/>
-      <c r="D83" s="237"/>
-      <c r="E83" s="237"/>
-      <c r="F83" s="237"/>
-      <c r="G83" s="237"/>
-      <c r="H83" s="237"/>
-      <c r="I83" s="237"/>
-      <c r="J83" s="237"/>
-      <c r="K83" s="237"/>
-      <c r="L83" s="237"/>
-      <c r="M83" s="237"/>
-      <c r="N83" s="237"/>
-      <c r="O83" s="237"/>
-      <c r="P83" s="237"/>
-      <c r="Q83" s="237"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
+      <c r="F83" s="230"/>
+      <c r="G83" s="230"/>
+      <c r="H83" s="230"/>
+      <c r="I83" s="230"/>
+      <c r="J83" s="230"/>
+      <c r="K83" s="230"/>
+      <c r="L83" s="230"/>
+      <c r="M83" s="230"/>
+      <c r="N83" s="230"/>
+      <c r="O83" s="230"/>
+      <c r="P83" s="230"/>
+      <c r="Q83" s="230"/>
     </row>
     <row r="84" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="237" t="s">
+      <c r="B84" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="237"/>
-      <c r="D84" s="237"/>
-      <c r="E84" s="237"/>
-      <c r="F84" s="237"/>
-      <c r="G84" s="237"/>
-      <c r="H84" s="237"/>
-      <c r="I84" s="237"/>
-      <c r="J84" s="237"/>
-      <c r="K84" s="237"/>
-      <c r="L84" s="237"/>
-      <c r="M84" s="237"/>
-      <c r="N84" s="237"/>
-      <c r="O84" s="237"/>
-      <c r="P84" s="237"/>
-      <c r="Q84" s="237"/>
+      <c r="C84" s="230"/>
+      <c r="D84" s="230"/>
+      <c r="E84" s="230"/>
+      <c r="F84" s="230"/>
+      <c r="G84" s="230"/>
+      <c r="H84" s="230"/>
+      <c r="I84" s="230"/>
+      <c r="J84" s="230"/>
+      <c r="K84" s="230"/>
+      <c r="L84" s="230"/>
+      <c r="M84" s="230"/>
+      <c r="N84" s="230"/>
+      <c r="O84" s="230"/>
+      <c r="P84" s="230"/>
+      <c r="Q84" s="230"/>
     </row>
     <row r="85" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="237" t="s">
+      <c r="B85" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="237"/>
-      <c r="D85" s="237"/>
-      <c r="E85" s="237"/>
-      <c r="F85" s="237"/>
-      <c r="G85" s="237"/>
-      <c r="H85" s="237"/>
-      <c r="I85" s="237"/>
-      <c r="J85" s="237"/>
-      <c r="K85" s="237"/>
-      <c r="L85" s="237"/>
-      <c r="M85" s="237"/>
-      <c r="N85" s="237"/>
-      <c r="O85" s="237"/>
-      <c r="P85" s="237"/>
-      <c r="Q85" s="237"/>
+      <c r="C85" s="230"/>
+      <c r="D85" s="230"/>
+      <c r="E85" s="230"/>
+      <c r="F85" s="230"/>
+      <c r="G85" s="230"/>
+      <c r="H85" s="230"/>
+      <c r="I85" s="230"/>
+      <c r="J85" s="230"/>
+      <c r="K85" s="230"/>
+      <c r="L85" s="230"/>
+      <c r="M85" s="230"/>
+      <c r="N85" s="230"/>
+      <c r="O85" s="230"/>
+      <c r="P85" s="230"/>
+      <c r="Q85" s="230"/>
     </row>
     <row r="86" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="234" t="s">
+      <c r="C86" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="234"/>
-      <c r="E86" s="234"/>
-      <c r="F86" s="234"/>
-      <c r="G86" s="234"/>
-      <c r="H86" s="234"/>
-      <c r="I86" s="234"/>
-      <c r="J86" s="234"/>
-      <c r="K86" s="234"/>
-      <c r="L86" s="234"/>
-      <c r="M86" s="234"/>
-      <c r="N86" s="234"/>
-      <c r="O86" s="234"/>
-      <c r="P86" s="234"/>
-      <c r="Q86" s="234"/>
+      <c r="D86" s="223"/>
+      <c r="E86" s="223"/>
+      <c r="F86" s="223"/>
+      <c r="G86" s="223"/>
+      <c r="H86" s="223"/>
+      <c r="I86" s="223"/>
+      <c r="J86" s="223"/>
+      <c r="K86" s="223"/>
+      <c r="L86" s="223"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="223"/>
+      <c r="O86" s="223"/>
+      <c r="P86" s="223"/>
+      <c r="Q86" s="223"/>
     </row>
     <row r="87" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="234" t="s">
+      <c r="C87" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="234"/>
-      <c r="E87" s="234"/>
-      <c r="F87" s="234"/>
-      <c r="G87" s="234"/>
-      <c r="H87" s="234"/>
-      <c r="I87" s="234"/>
-      <c r="J87" s="234"/>
-      <c r="K87" s="234"/>
-      <c r="L87" s="234"/>
-      <c r="M87" s="234"/>
-      <c r="N87" s="234"/>
-      <c r="O87" s="234"/>
-      <c r="P87" s="234"/>
-      <c r="Q87" s="234"/>
+      <c r="D87" s="223"/>
+      <c r="E87" s="223"/>
+      <c r="F87" s="223"/>
+      <c r="G87" s="223"/>
+      <c r="H87" s="223"/>
+      <c r="I87" s="223"/>
+      <c r="J87" s="223"/>
+      <c r="K87" s="223"/>
+      <c r="L87" s="223"/>
+      <c r="M87" s="223"/>
+      <c r="N87" s="223"/>
+      <c r="O87" s="223"/>
+      <c r="P87" s="223"/>
+      <c r="Q87" s="223"/>
     </row>
     <row r="88" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="30"/>
       <c r="B88" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="234" t="s">
+      <c r="C88" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="234"/>
-      <c r="E88" s="234"/>
-      <c r="F88" s="234"/>
-      <c r="G88" s="234"/>
-      <c r="H88" s="234"/>
-      <c r="I88" s="234"/>
-      <c r="J88" s="234"/>
-      <c r="K88" s="234"/>
-      <c r="L88" s="234"/>
-      <c r="M88" s="234"/>
-      <c r="N88" s="234"/>
-      <c r="O88" s="234"/>
-      <c r="P88" s="234"/>
-      <c r="Q88" s="234"/>
+      <c r="D88" s="223"/>
+      <c r="E88" s="223"/>
+      <c r="F88" s="223"/>
+      <c r="G88" s="223"/>
+      <c r="H88" s="223"/>
+      <c r="I88" s="223"/>
+      <c r="J88" s="223"/>
+      <c r="K88" s="223"/>
+      <c r="L88" s="223"/>
+      <c r="M88" s="223"/>
+      <c r="N88" s="223"/>
+      <c r="O88" s="223"/>
+      <c r="P88" s="223"/>
+      <c r="Q88" s="223"/>
     </row>
     <row r="89" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="234" t="s">
+      <c r="C89" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="234"/>
-      <c r="E89" s="234"/>
-      <c r="F89" s="234"/>
-      <c r="G89" s="234"/>
-      <c r="H89" s="234"/>
-      <c r="I89" s="234"/>
-      <c r="J89" s="234"/>
-      <c r="K89" s="234"/>
-      <c r="L89" s="234"/>
-      <c r="M89" s="234"/>
-      <c r="N89" s="234"/>
-      <c r="O89" s="234"/>
-      <c r="P89" s="234"/>
-      <c r="Q89" s="234"/>
+      <c r="D89" s="223"/>
+      <c r="E89" s="223"/>
+      <c r="F89" s="223"/>
+      <c r="G89" s="223"/>
+      <c r="H89" s="223"/>
+      <c r="I89" s="223"/>
+      <c r="J89" s="223"/>
+      <c r="K89" s="223"/>
+      <c r="L89" s="223"/>
+      <c r="M89" s="223"/>
+      <c r="N89" s="223"/>
+      <c r="O89" s="223"/>
+      <c r="P89" s="223"/>
+      <c r="Q89" s="223"/>
     </row>
     <row r="90" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="30"/>
       <c r="B90" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="234" t="s">
+      <c r="C90" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="234"/>
-      <c r="E90" s="234"/>
-      <c r="F90" s="234"/>
-      <c r="G90" s="234"/>
-      <c r="H90" s="234"/>
-      <c r="I90" s="234"/>
-      <c r="J90" s="234"/>
-      <c r="K90" s="234"/>
-      <c r="L90" s="234"/>
-      <c r="M90" s="234"/>
-      <c r="N90" s="234"/>
-      <c r="O90" s="234"/>
-      <c r="P90" s="234"/>
-      <c r="Q90" s="234"/>
+      <c r="D90" s="223"/>
+      <c r="E90" s="223"/>
+      <c r="F90" s="223"/>
+      <c r="G90" s="223"/>
+      <c r="H90" s="223"/>
+      <c r="I90" s="223"/>
+      <c r="J90" s="223"/>
+      <c r="K90" s="223"/>
+      <c r="L90" s="223"/>
+      <c r="M90" s="223"/>
+      <c r="N90" s="223"/>
+      <c r="O90" s="223"/>
+      <c r="P90" s="223"/>
+      <c r="Q90" s="223"/>
     </row>
     <row r="91" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="30"/>
@@ -5668,25 +5668,25 @@
       <c r="Q91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="231" t="s">
+      <c r="A92" s="224" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="231"/>
-      <c r="C92" s="231"/>
-      <c r="D92" s="231"/>
-      <c r="E92" s="231"/>
-      <c r="F92" s="231"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="231"/>
-      <c r="I92" s="231"/>
-      <c r="J92" s="231"/>
-      <c r="K92" s="231"/>
-      <c r="L92" s="231"/>
-      <c r="M92" s="231"/>
-      <c r="N92" s="231"/>
-      <c r="O92" s="231"/>
-      <c r="P92" s="231"/>
-      <c r="Q92" s="231"/>
+      <c r="B92" s="224"/>
+      <c r="C92" s="224"/>
+      <c r="D92" s="224"/>
+      <c r="E92" s="224"/>
+      <c r="F92" s="224"/>
+      <c r="G92" s="224"/>
+      <c r="H92" s="224"/>
+      <c r="I92" s="224"/>
+      <c r="J92" s="224"/>
+      <c r="K92" s="224"/>
+      <c r="L92" s="224"/>
+      <c r="M92" s="224"/>
+      <c r="N92" s="224"/>
+      <c r="O92" s="224"/>
+      <c r="P92" s="224"/>
+      <c r="Q92" s="224"/>
     </row>
     <row r="93" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
@@ -5713,47 +5713,47 @@
       <c r="A94" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="234" t="s">
+      <c r="B94" s="223" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="234"/>
-      <c r="D94" s="234"/>
-      <c r="E94" s="234"/>
-      <c r="F94" s="234"/>
-      <c r="G94" s="234"/>
-      <c r="H94" s="234"/>
-      <c r="I94" s="234"/>
-      <c r="J94" s="234"/>
-      <c r="K94" s="234"/>
-      <c r="L94" s="234"/>
-      <c r="M94" s="234"/>
-      <c r="N94" s="234"/>
-      <c r="O94" s="234"/>
-      <c r="P94" s="234"/>
-      <c r="Q94" s="234"/>
+      <c r="C94" s="223"/>
+      <c r="D94" s="223"/>
+      <c r="E94" s="223"/>
+      <c r="F94" s="223"/>
+      <c r="G94" s="223"/>
+      <c r="H94" s="223"/>
+      <c r="I94" s="223"/>
+      <c r="J94" s="223"/>
+      <c r="K94" s="223"/>
+      <c r="L94" s="223"/>
+      <c r="M94" s="223"/>
+      <c r="N94" s="223"/>
+      <c r="O94" s="223"/>
+      <c r="P94" s="223"/>
+      <c r="Q94" s="223"/>
     </row>
     <row r="95" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="234" t="s">
+      <c r="B95" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="234"/>
-      <c r="D95" s="234"/>
-      <c r="E95" s="234"/>
-      <c r="F95" s="234"/>
-      <c r="G95" s="234"/>
-      <c r="H95" s="234"/>
-      <c r="I95" s="234"/>
-      <c r="J95" s="234"/>
-      <c r="K95" s="234"/>
-      <c r="L95" s="234"/>
-      <c r="M95" s="234"/>
-      <c r="N95" s="234"/>
-      <c r="O95" s="234"/>
-      <c r="P95" s="234"/>
-      <c r="Q95" s="234"/>
+      <c r="C95" s="223"/>
+      <c r="D95" s="223"/>
+      <c r="E95" s="223"/>
+      <c r="F95" s="223"/>
+      <c r="G95" s="223"/>
+      <c r="H95" s="223"/>
+      <c r="I95" s="223"/>
+      <c r="J95" s="223"/>
+      <c r="K95" s="223"/>
+      <c r="L95" s="223"/>
+      <c r="M95" s="223"/>
+      <c r="N95" s="223"/>
+      <c r="O95" s="223"/>
+      <c r="P95" s="223"/>
+      <c r="Q95" s="223"/>
     </row>
     <row r="96" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
@@ -5855,46 +5855,46 @@
       <c r="Q100" s="23"/>
     </row>
     <row r="101" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="231" t="s">
+      <c r="A101" s="224" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="231"/>
-      <c r="C101" s="231"/>
-      <c r="D101" s="231"/>
-      <c r="E101" s="231"/>
-      <c r="F101" s="231"/>
-      <c r="G101" s="231"/>
-      <c r="H101" s="231"/>
-      <c r="I101" s="231"/>
-      <c r="J101" s="231"/>
-      <c r="K101" s="231"/>
-      <c r="L101" s="231"/>
-      <c r="M101" s="231"/>
-      <c r="N101" s="231"/>
-      <c r="O101" s="231"/>
-      <c r="P101" s="231"/>
-      <c r="Q101" s="231"/>
+      <c r="B101" s="224"/>
+      <c r="C101" s="224"/>
+      <c r="D101" s="224"/>
+      <c r="E101" s="224"/>
+      <c r="F101" s="224"/>
+      <c r="G101" s="224"/>
+      <c r="H101" s="224"/>
+      <c r="I101" s="224"/>
+      <c r="J101" s="224"/>
+      <c r="K101" s="224"/>
+      <c r="L101" s="224"/>
+      <c r="M101" s="224"/>
+      <c r="N101" s="224"/>
+      <c r="O101" s="224"/>
+      <c r="P101" s="224"/>
+      <c r="Q101" s="224"/>
     </row>
     <row r="102" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="239" t="s">
+      <c r="A102" s="226" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="239"/>
-      <c r="C102" s="239"/>
-      <c r="D102" s="239"/>
-      <c r="E102" s="239"/>
-      <c r="F102" s="239"/>
-      <c r="G102" s="239"/>
-      <c r="H102" s="239"/>
-      <c r="I102" s="239"/>
-      <c r="J102" s="239"/>
-      <c r="K102" s="239"/>
-      <c r="L102" s="239"/>
-      <c r="M102" s="239"/>
-      <c r="N102" s="239"/>
-      <c r="O102" s="239"/>
-      <c r="P102" s="239"/>
-      <c r="Q102" s="239"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="226"/>
+      <c r="D102" s="226"/>
+      <c r="E102" s="226"/>
+      <c r="F102" s="226"/>
+      <c r="G102" s="226"/>
+      <c r="H102" s="226"/>
+      <c r="I102" s="226"/>
+      <c r="J102" s="226"/>
+      <c r="K102" s="226"/>
+      <c r="L102" s="226"/>
+      <c r="M102" s="226"/>
+      <c r="N102" s="226"/>
+      <c r="O102" s="226"/>
+      <c r="P102" s="226"/>
+      <c r="Q102" s="226"/>
     </row>
     <row r="103" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="23"/>
@@ -5916,25 +5916,25 @@
       <c r="Q103" s="23"/>
     </row>
     <row r="104" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="234" t="s">
+      <c r="A104" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="234"/>
-      <c r="C104" s="234"/>
-      <c r="D104" s="234"/>
-      <c r="E104" s="234"/>
-      <c r="F104" s="234"/>
-      <c r="G104" s="234"/>
-      <c r="H104" s="234"/>
-      <c r="I104" s="234"/>
-      <c r="J104" s="234"/>
-      <c r="K104" s="234"/>
-      <c r="L104" s="234"/>
-      <c r="M104" s="234"/>
-      <c r="N104" s="234"/>
-      <c r="O104" s="234"/>
-      <c r="P104" s="234"/>
-      <c r="Q104" s="234"/>
+      <c r="B104" s="223"/>
+      <c r="C104" s="223"/>
+      <c r="D104" s="223"/>
+      <c r="E104" s="223"/>
+      <c r="F104" s="223"/>
+      <c r="G104" s="223"/>
+      <c r="H104" s="223"/>
+      <c r="I104" s="223"/>
+      <c r="J104" s="223"/>
+      <c r="K104" s="223"/>
+      <c r="L104" s="223"/>
+      <c r="M104" s="223"/>
+      <c r="N104" s="223"/>
+      <c r="O104" s="223"/>
+      <c r="P104" s="223"/>
+      <c r="Q104" s="223"/>
     </row>
     <row r="105" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="31"/>
@@ -6155,11 +6155,11 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="240"/>
-      <c r="N115" s="240"/>
-      <c r="O115" s="240"/>
-      <c r="P115" s="240"/>
-      <c r="Q115" s="240"/>
+      <c r="M115" s="227"/>
+      <c r="N115" s="227"/>
+      <c r="O115" s="227"/>
+      <c r="P115" s="227"/>
+      <c r="Q115" s="227"/>
     </row>
     <row r="116" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
@@ -6192,12 +6192,12 @@
       <c r="G117" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H117" s="241" t="str">
+      <c r="H117" s="228" t="str">
         <f>O107</f>
         <v>HUNTU</v>
       </c>
-      <c r="I117" s="241"/>
-      <c r="J117" s="241"/>
+      <c r="I117" s="228"/>
+      <c r="J117" s="228"/>
       <c r="K117" s="38"/>
       <c r="L117" s="38"/>
       <c r="M117" s="38"/>
@@ -6233,18 +6233,18 @@
       <c r="Q118" s="33"/>
     </row>
     <row r="119" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="238" t="s">
+      <c r="A119" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="238"/>
-      <c r="C119" s="238"/>
-      <c r="D119" s="238"/>
-      <c r="E119" s="238"/>
-      <c r="F119" s="238"/>
-      <c r="G119" s="238"/>
-      <c r="H119" s="238"/>
-      <c r="I119" s="238"/>
-      <c r="J119" s="238"/>
+      <c r="B119" s="221"/>
+      <c r="C119" s="221"/>
+      <c r="D119" s="221"/>
+      <c r="E119" s="221"/>
+      <c r="F119" s="221"/>
+      <c r="G119" s="221"/>
+      <c r="H119" s="221"/>
+      <c r="I119" s="221"/>
+      <c r="J119" s="221"/>
       <c r="K119" s="38"/>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -6254,15 +6254,15 @@
       <c r="Q119" s="38"/>
     </row>
     <row r="120" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="238"/>
-      <c r="B120" s="238"/>
-      <c r="C120" s="238"/>
-      <c r="D120" s="238"/>
-      <c r="E120" s="238"/>
-      <c r="F120" s="238"/>
-      <c r="G120" s="238"/>
-      <c r="H120" s="238"/>
-      <c r="I120" s="238"/>
+      <c r="A120" s="221"/>
+      <c r="B120" s="221"/>
+      <c r="C120" s="221"/>
+      <c r="D120" s="221"/>
+      <c r="E120" s="221"/>
+      <c r="F120" s="221"/>
+      <c r="G120" s="221"/>
+      <c r="H120" s="221"/>
+      <c r="I120" s="221"/>
       <c r="J120" s="38"/>
       <c r="K120" s="38"/>
       <c r="L120" s="38"/>
@@ -6273,15 +6273,15 @@
       <c r="Q120" s="38"/>
     </row>
     <row r="121" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="238"/>
-      <c r="B121" s="238"/>
-      <c r="C121" s="238"/>
-      <c r="D121" s="238"/>
-      <c r="E121" s="238"/>
-      <c r="F121" s="238"/>
-      <c r="G121" s="238"/>
-      <c r="H121" s="238"/>
-      <c r="I121" s="238"/>
+      <c r="A121" s="221"/>
+      <c r="B121" s="221"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="221"/>
+      <c r="E121" s="221"/>
+      <c r="F121" s="221"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="221"/>
+      <c r="I121" s="221"/>
       <c r="J121" s="38"/>
       <c r="K121" s="38"/>
       <c r="L121" s="38"/>
@@ -6292,15 +6292,15 @@
       <c r="Q121" s="38"/>
     </row>
     <row r="122" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="238"/>
-      <c r="B122" s="238"/>
-      <c r="C122" s="238"/>
-      <c r="D122" s="238"/>
-      <c r="E122" s="238"/>
-      <c r="F122" s="238"/>
-      <c r="G122" s="238"/>
-      <c r="H122" s="238"/>
-      <c r="I122" s="238"/>
+      <c r="A122" s="221"/>
+      <c r="B122" s="221"/>
+      <c r="C122" s="221"/>
+      <c r="D122" s="221"/>
+      <c r="E122" s="221"/>
+      <c r="F122" s="221"/>
+      <c r="G122" s="221"/>
+      <c r="H122" s="221"/>
+      <c r="I122" s="221"/>
       <c r="J122" s="38"/>
       <c r="K122" s="38"/>
       <c r="L122" s="38"/>
@@ -6311,15 +6311,15 @@
       <c r="Q122" s="38"/>
     </row>
     <row r="123" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="238"/>
-      <c r="B123" s="238"/>
-      <c r="C123" s="238"/>
-      <c r="D123" s="238"/>
-      <c r="E123" s="238"/>
-      <c r="F123" s="238"/>
-      <c r="G123" s="238"/>
-      <c r="H123" s="238"/>
-      <c r="I123" s="238"/>
+      <c r="A123" s="221"/>
+      <c r="B123" s="221"/>
+      <c r="C123" s="221"/>
+      <c r="D123" s="221"/>
+      <c r="E123" s="221"/>
+      <c r="F123" s="221"/>
+      <c r="G123" s="221"/>
+      <c r="H123" s="221"/>
+      <c r="I123" s="221"/>
       <c r="J123" s="38"/>
       <c r="K123" s="38"/>
       <c r="L123" s="38"/>
@@ -6330,17 +6330,17 @@
       <c r="Q123" s="38"/>
     </row>
     <row r="124" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="242" t="s">
+      <c r="A124" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="242"/>
-      <c r="C124" s="242"/>
-      <c r="D124" s="242"/>
-      <c r="E124" s="242"/>
-      <c r="F124" s="242"/>
-      <c r="G124" s="242"/>
-      <c r="H124" s="242"/>
-      <c r="I124" s="242"/>
+      <c r="B124" s="222"/>
+      <c r="C124" s="222"/>
+      <c r="D124" s="222"/>
+      <c r="E124" s="222"/>
+      <c r="F124" s="222"/>
+      <c r="G124" s="222"/>
+      <c r="H124" s="222"/>
+      <c r="I124" s="222"/>
       <c r="J124" s="38"/>
       <c r="K124" s="38"/>
       <c r="L124" s="38"/>
@@ -6351,15 +6351,15 @@
       <c r="Q124" s="38"/>
     </row>
     <row r="125" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="238"/>
-      <c r="B125" s="238"/>
-      <c r="C125" s="238"/>
-      <c r="D125" s="238"/>
-      <c r="E125" s="238"/>
-      <c r="F125" s="238"/>
-      <c r="G125" s="238"/>
-      <c r="H125" s="238"/>
-      <c r="I125" s="238"/>
+      <c r="A125" s="221"/>
+      <c r="B125" s="221"/>
+      <c r="C125" s="221"/>
+      <c r="D125" s="221"/>
+      <c r="E125" s="221"/>
+      <c r="F125" s="221"/>
+      <c r="G125" s="221"/>
+      <c r="H125" s="221"/>
+      <c r="I125" s="221"/>
       <c r="J125" s="38"/>
       <c r="K125" s="38"/>
       <c r="L125" s="38"/>
@@ -6430,35 +6430,54 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A125:I125"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="C90:Q90"/>
-    <mergeCell ref="A92:Q92"/>
-    <mergeCell ref="B94:Q94"/>
-    <mergeCell ref="B95:Q95"/>
-    <mergeCell ref="B96:Q96"/>
-    <mergeCell ref="A101:Q101"/>
-    <mergeCell ref="A102:Q102"/>
-    <mergeCell ref="A104:Q104"/>
-    <mergeCell ref="M115:Q115"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="A119:J119"/>
-    <mergeCell ref="C89:Q89"/>
-    <mergeCell ref="A72:Q72"/>
-    <mergeCell ref="A78:Q78"/>
-    <mergeCell ref="A79:Q79"/>
-    <mergeCell ref="A81:Q81"/>
-    <mergeCell ref="B82:Q82"/>
-    <mergeCell ref="B83:Q83"/>
-    <mergeCell ref="B84:Q84"/>
-    <mergeCell ref="B85:Q85"/>
-    <mergeCell ref="C86:Q86"/>
-    <mergeCell ref="C87:Q87"/>
-    <mergeCell ref="C88:Q88"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="G28:Q28"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="G22:Q22"/>
+    <mergeCell ref="G23:Q23"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G40:Q40"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G36:Q36"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="G41:Q41"/>
+    <mergeCell ref="G42:Q42"/>
+    <mergeCell ref="A43:Q43"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="A45:Q45"/>
+    <mergeCell ref="A46:Q46"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="F50:Q50"/>
+    <mergeCell ref="A52:Q52"/>
+    <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
     <mergeCell ref="A71:Q71"/>
     <mergeCell ref="P57:Q57"/>
     <mergeCell ref="P58:Q58"/>
@@ -6472,54 +6491,35 @@
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="A68:Q68"/>
     <mergeCell ref="A69:Q69"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="G41:Q41"/>
-    <mergeCell ref="G42:Q42"/>
-    <mergeCell ref="A43:Q43"/>
-    <mergeCell ref="A44:Q44"/>
-    <mergeCell ref="A45:Q45"/>
-    <mergeCell ref="A46:Q46"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="A52:Q52"/>
-    <mergeCell ref="A53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="G40:Q40"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G36:Q36"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G28:Q28"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="G22:Q22"/>
-    <mergeCell ref="G23:Q23"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="C89:Q89"/>
+    <mergeCell ref="A72:Q72"/>
+    <mergeCell ref="A78:Q78"/>
+    <mergeCell ref="A79:Q79"/>
+    <mergeCell ref="A81:Q81"/>
+    <mergeCell ref="B82:Q82"/>
+    <mergeCell ref="B83:Q83"/>
+    <mergeCell ref="B84:Q84"/>
+    <mergeCell ref="B85:Q85"/>
+    <mergeCell ref="C86:Q86"/>
+    <mergeCell ref="C87:Q87"/>
+    <mergeCell ref="C88:Q88"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="C90:Q90"/>
+    <mergeCell ref="A92:Q92"/>
+    <mergeCell ref="B94:Q94"/>
+    <mergeCell ref="B95:Q95"/>
+    <mergeCell ref="B96:Q96"/>
+    <mergeCell ref="A101:Q101"/>
+    <mergeCell ref="A102:Q102"/>
+    <mergeCell ref="A104:Q104"/>
+    <mergeCell ref="M115:Q115"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A125:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6530,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F19E87-D299-483A-9B10-9A48A63C3B03}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6605,54 +6605,54 @@
       <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="272" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
     </row>
     <row r="6" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="272" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
     </row>
     <row r="7" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="272" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
+      <c r="B7" s="272"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="246"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
+      <c r="A8" s="273"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="47"/>
@@ -6666,49 +6666,49 @@
       <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="247" t="s">
+      <c r="A10" s="274" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="251" t="s">
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="278" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="251"/>
-      <c r="H10" s="248" t="s">
+      <c r="G10" s="278"/>
+      <c r="H10" s="275" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="253" t="s">
+      <c r="I10" s="280" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="249"/>
-      <c r="B11" s="250"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="254"/>
+      <c r="A11" s="276"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="279"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="277"/>
+      <c r="I11" s="281"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="257">
+      <c r="A12" s="284">
         <v>1</v>
       </c>
-      <c r="B12" s="258"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="258">
+      <c r="B12" s="285"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="285">
         <v>2</v>
       </c>
-      <c r="E12" s="258"/>
-      <c r="F12" s="259">
+      <c r="E12" s="285"/>
+      <c r="F12" s="286">
         <v>3</v>
       </c>
-      <c r="G12" s="259"/>
+      <c r="G12" s="286"/>
       <c r="H12" s="50">
         <v>6</v>
       </c>
@@ -6732,8 +6732,8 @@
       <c r="E13" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
       <c r="H13" s="53"/>
       <c r="I13" s="54"/>
     </row>
@@ -6782,10 +6782,10 @@
       <c r="E16" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="243" t="s">
+      <c r="F16" s="244" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="244"/>
+      <c r="G16" s="245"/>
       <c r="H16" s="68" t="s">
         <v>157</v>
       </c>
@@ -6799,8 +6799,8 @@
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
       <c r="E17" s="70"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="256"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="283"/>
       <c r="H17" s="71"/>
       <c r="I17" s="69"/>
     </row>
@@ -6834,10 +6834,10 @@
       <c r="E19" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="243" t="s">
+      <c r="F19" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="244"/>
+      <c r="G19" s="245"/>
       <c r="H19" s="68" t="s">
         <v>162</v>
       </c>
@@ -6851,8 +6851,8 @@
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="70"/>
-      <c r="F20" s="263"/>
-      <c r="G20" s="264"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="263"/>
       <c r="H20" s="71"/>
       <c r="I20" s="69"/>
     </row>
@@ -6886,10 +6886,10 @@
       <c r="E22" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="243" t="s">
+      <c r="F22" s="244" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="244"/>
+      <c r="G22" s="245"/>
       <c r="H22" s="68" t="s">
         <v>167</v>
       </c>
@@ -6903,21 +6903,21 @@
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
       <c r="E23" s="85"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="266"/>
+      <c r="F23" s="264"/>
+      <c r="G23" s="265"/>
       <c r="H23" s="86"/>
       <c r="I23" s="87"/>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="267" t="s">
+      <c r="A24" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="267"/>
-      <c r="C24" s="267"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="267"/>
-      <c r="G24" s="268"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="267"/>
       <c r="H24" s="88">
         <f>H15+H18+H21</f>
         <v>0</v>
@@ -6959,10 +6959,10 @@
       <c r="C27" s="108"/>
       <c r="D27" s="109"/>
       <c r="E27" s="108"/>
-      <c r="F27" s="269" t="s">
+      <c r="F27" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="270"/>
+      <c r="G27" s="269"/>
       <c r="H27" s="110">
         <f>H43</f>
         <v>0</v>
@@ -6988,26 +6988,26 @@
       <c r="I28" s="119"/>
     </row>
     <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="287" t="s">
+      <c r="A29" s="220" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="287" t="s">
+      <c r="C29" s="220" t="s">
         <v>171</v>
       </c>
       <c r="D29" s="125"/>
       <c r="E29" s="126"/>
-      <c r="F29" s="243" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="244"/>
+      <c r="F29" s="244" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="245"/>
       <c r="H29" s="68" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="I29" s="69" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7016,8 +7016,8 @@
       <c r="C30" s="129"/>
       <c r="D30" s="130"/>
       <c r="E30" s="131"/>
-      <c r="F30" s="285"/>
-      <c r="G30" s="286"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="271"/>
       <c r="H30" s="132"/>
       <c r="I30" s="133"/>
     </row>
@@ -7040,26 +7040,26 @@
       <c r="I31" s="151"/>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="287" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="287" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="287" t="s">
-        <v>177</v>
+      <c r="A32" s="220" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="220" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="220" t="s">
+        <v>174</v>
       </c>
       <c r="D32" s="125"/>
       <c r="E32" s="126"/>
-      <c r="F32" s="243" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="244"/>
+      <c r="F32" s="244" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="245"/>
       <c r="H32" s="68" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I32" s="69" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -7092,26 +7092,26 @@
       <c r="I34" s="219"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="287" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="287" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="287" t="s">
-        <v>183</v>
+      <c r="A35" s="220" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="220" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="220" t="s">
+        <v>177</v>
       </c>
       <c r="D35" s="125"/>
       <c r="E35" s="126"/>
-      <c r="F35" s="243" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="244"/>
+      <c r="F35" s="244" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="245"/>
       <c r="H35" s="68" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I35" s="69" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -7120,8 +7120,8 @@
       <c r="C36" s="139"/>
       <c r="D36" s="140"/>
       <c r="E36" s="141"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="262"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="261"/>
       <c r="H36" s="160"/>
       <c r="I36" s="135"/>
     </row>
@@ -7144,26 +7144,26 @@
       <c r="I37" s="168"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="287" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="287" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="287" t="s">
-        <v>189</v>
+      <c r="A38" s="220" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="220" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="220" t="s">
+        <v>180</v>
       </c>
       <c r="D38" s="125"/>
       <c r="E38" s="126"/>
-      <c r="F38" s="243" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="244"/>
+      <c r="F38" s="244" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="245"/>
       <c r="H38" s="68" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I38" s="69" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -7196,26 +7196,26 @@
       <c r="I40" s="176"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="287" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="287" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="287" t="s">
-        <v>195</v>
+      <c r="A41" s="220" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="220" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="220" t="s">
+        <v>183</v>
       </c>
       <c r="D41" s="125"/>
       <c r="E41" s="126"/>
-      <c r="F41" s="243" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="244"/>
+      <c r="F41" s="244" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="245"/>
       <c r="H41" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I41" s="69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7230,15 +7230,15 @@
       <c r="I42" s="135"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="273" t="s">
+      <c r="A43" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="274"/>
-      <c r="C43" s="274"/>
-      <c r="D43" s="274"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="274"/>
-      <c r="G43" s="275"/>
+      <c r="B43" s="249"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="249"/>
+      <c r="G43" s="250"/>
       <c r="H43" s="178">
         <f>H28+H31+H34+H37+H40</f>
         <v>0</v>
@@ -7246,15 +7246,15 @@
       <c r="I43" s="179"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="276" t="s">
+      <c r="A44" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="277"/>
-      <c r="C44" s="277"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="277"/>
-      <c r="F44" s="277"/>
-      <c r="G44" s="278"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
+      <c r="E44" s="252"/>
+      <c r="F44" s="252"/>
+      <c r="G44" s="253"/>
       <c r="H44" s="180"/>
       <c r="I44" s="181"/>
     </row>
@@ -7321,28 +7321,28 @@
       <c r="I48" s="200"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="279" t="s">
+      <c r="A49" s="254" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="280"/>
-      <c r="C49" s="280"/>
-      <c r="D49" s="280"/>
-      <c r="E49" s="280"/>
-      <c r="F49" s="280"/>
-      <c r="G49" s="281"/>
+      <c r="B49" s="255"/>
+      <c r="C49" s="255"/>
+      <c r="D49" s="255"/>
+      <c r="E49" s="255"/>
+      <c r="F49" s="255"/>
+      <c r="G49" s="256"/>
       <c r="H49" s="201"/>
       <c r="I49" s="202"/>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="282" t="s">
+      <c r="A50" s="257" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="283"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="283"/>
-      <c r="E50" s="283"/>
-      <c r="F50" s="283"/>
-      <c r="G50" s="284"/>
+      <c r="B50" s="258"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
+      <c r="G50" s="259"/>
       <c r="H50" s="203"/>
       <c r="I50" s="204"/>
     </row>
@@ -7389,10 +7389,10 @@
       <c r="E54" s="47"/>
       <c r="F54" s="49"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="271" t="s">
+      <c r="H54" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="271"/>
+      <c r="I54" s="246"/>
     </row>
     <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="47"/>
@@ -7457,10 +7457,10 @@
       <c r="E60" s="47"/>
       <c r="F60" s="49"/>
       <c r="G60" s="46"/>
-      <c r="H60" s="272" t="s">
+      <c r="H60" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="I60" s="272"/>
+      <c r="I60" s="247"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="47"/>
@@ -7475,24 +7475,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
@@ -7508,6 +7490,24 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
